--- a/Investeringkalkyl.xlsx
+++ b/Investeringkalkyl.xlsx
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="B2" s="6" t="n">
-        <v>-1000000</v>
+        <v>-2000000</v>
       </c>
     </row>
     <row r="3">
@@ -534,34 +534,34 @@
         </is>
       </c>
       <c r="C3" s="7" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="F3" s="7" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="G3" s="7" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="H3" s="7" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="I3" s="7" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="K3" s="7" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="L3" s="7" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="4">
@@ -571,34 +571,34 @@
         </is>
       </c>
       <c r="C4" s="7" t="n">
-        <v>350000</v>
+        <v>700000</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>350000</v>
+        <v>700000</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>350000</v>
+        <v>700000</v>
       </c>
       <c r="F4" s="7" t="n">
-        <v>350000</v>
+        <v>700000</v>
       </c>
       <c r="G4" s="7" t="n">
-        <v>350000</v>
+        <v>700000</v>
       </c>
       <c r="H4" s="7" t="n">
-        <v>350000</v>
+        <v>700000</v>
       </c>
       <c r="I4" s="7" t="n">
-        <v>350000</v>
+        <v>700000</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>350000</v>
+        <v>700000</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>350000</v>
+        <v>700000</v>
       </c>
       <c r="L4" s="7" t="n">
-        <v>350000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="5">
@@ -608,37 +608,37 @@
         </is>
       </c>
       <c r="B5" s="6" t="n">
-        <v>-140000</v>
+        <v>-350000</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>-140000</v>
+        <v>-210000</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-140000</v>
+        <v>-210000</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-140000</v>
+        <v>-210000</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-140000</v>
+        <v>-210000</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-140000</v>
+        <v>-210000</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-140000</v>
+        <v>-210000</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-140000</v>
+        <v>-210000</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-140000</v>
+        <v>-210000</v>
       </c>
       <c r="K5" s="6" t="n">
-        <v>-140000</v>
+        <v>-210000</v>
       </c>
       <c r="L5" s="6" t="n">
-        <v>-140000</v>
+        <v>-210000</v>
       </c>
     </row>
     <row r="6">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B7" s="6" t="n">
-        <v>-100000</v>
+        <v>-200000</v>
       </c>
       <c r="L7" s="7" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="8">
@@ -671,37 +671,37 @@
         </is>
       </c>
       <c r="B8" s="8" t="n">
-        <v>-1240000</v>
+        <v>-2550000</v>
       </c>
       <c r="C8" s="9" t="n">
-        <v>240000</v>
+        <v>550000</v>
       </c>
       <c r="D8" s="9" t="n">
-        <v>240000</v>
+        <v>550000</v>
       </c>
       <c r="E8" s="9" t="n">
-        <v>240000</v>
+        <v>550000</v>
       </c>
       <c r="F8" s="9" t="n">
-        <v>240000</v>
+        <v>550000</v>
       </c>
       <c r="G8" s="9" t="n">
-        <v>240000</v>
+        <v>550000</v>
       </c>
       <c r="H8" s="9" t="n">
-        <v>240000</v>
+        <v>550000</v>
       </c>
       <c r="I8" s="9" t="n">
-        <v>240000</v>
+        <v>550000</v>
       </c>
       <c r="J8" s="9" t="n">
-        <v>240000</v>
+        <v>550000</v>
       </c>
       <c r="K8" s="9" t="n">
-        <v>240000</v>
+        <v>550000</v>
       </c>
       <c r="L8" s="9" t="n">
-        <v>480000</v>
+        <v>890000</v>
       </c>
     </row>
     <row r="9">
@@ -711,37 +711,37 @@
         </is>
       </c>
       <c r="B9" s="6" t="n">
-        <v>-1240000</v>
+        <v>-2550000</v>
       </c>
       <c r="C9" s="7" t="n">
-        <v>217194.5701357466</v>
+        <v>497737.556561086</v>
       </c>
       <c r="D9" s="7" t="n">
-        <v>196556.172068549</v>
+        <v>450441.2276570914</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>177878.8887498181</v>
+        <v>407639.1200516664</v>
       </c>
       <c r="F9" s="7" t="n">
-        <v>160976.3699093376</v>
+        <v>368904.1810422321</v>
       </c>
       <c r="G9" s="7" t="n">
-        <v>145679.9727686313</v>
+        <v>333849.9375947802</v>
       </c>
       <c r="H9" s="7" t="n">
-        <v>131837.0794286256</v>
+        <v>302126.6403572671</v>
       </c>
       <c r="I9" s="7" t="n">
-        <v>119309.5741435526</v>
+        <v>273417.7740789747</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>107972.4652882829</v>
+        <v>247436.8996189817</v>
       </c>
       <c r="K9" s="7" t="n">
-        <v>97712.6382699393</v>
+        <v>223924.7960352775</v>
       </c>
       <c r="L9" s="7" t="n">
-        <v>176855.4538822431</v>
+        <v>327919.4874066591</v>
       </c>
     </row>
     <row r="10">
@@ -751,37 +751,37 @@
         </is>
       </c>
       <c r="B10" s="6" t="n">
-        <v>-1240000</v>
+        <v>-2550000</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>-1022805.429864253</v>
+        <v>-2052262.443438914</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>-826249.2577957044</v>
+        <v>-1601821.215781823</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>-648370.3690458863</v>
+        <v>-1194182.095730156</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>-487393.9991365487</v>
+        <v>-825277.9146879243</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>-341714.0263679174</v>
+        <v>-491427.9770931441</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>-209876.9469392918</v>
-      </c>
-      <c r="I10" s="6" t="n">
-        <v>-90567.37279573917</v>
+        <v>-189301.336735877</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <v>84116.4373430977</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>17405.09249254376</v>
+        <v>331553.3369620794</v>
       </c>
       <c r="K10" s="7" t="n">
-        <v>115117.7307624831</v>
+        <v>555478.1329973569</v>
       </c>
       <c r="L10" s="7" t="n">
-        <v>291973.1846447261</v>
+        <v>883397.620404016</v>
       </c>
     </row>
     <row r="11">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="B11" s="9" t="n">
-        <v>291973.1846447261</v>
+        <v>883397.620404016</v>
       </c>
     </row>
     <row r="12"/>
